--- a/data/users_check.xlsx
+++ b/data/users_check.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="27860" windowHeight="15600"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8320" uniqueCount="7752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8319" uniqueCount="7752">
   <si>
     <t>username</t>
   </si>
@@ -24986,8 +24986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="E269" sqref="E269"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -27211,9 +27211,6 @@
       <c r="C115">
         <v>202</v>
       </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
       <c r="E115" t="s">
         <v>443</v>
       </c>
